--- a/src/Input_Files/duchy_names/italia_duchies.xlsx
+++ b/src/Input_Files/duchy_names/italia_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDE3CA2-366E-473A-867C-D3400C189FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9E5C1-A445-4712-B9CE-1316B8BCDE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="6420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,177 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -842,19 +1012,19 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -871,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -885,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -899,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -913,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -927,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -941,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -955,7 +1125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -969,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -983,7 +1153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1011,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1053,7 +1223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1067,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1095,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1109,7 +1279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1123,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1137,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1151,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1165,7 +1335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1179,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1193,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1207,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1221,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1235,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1249,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1277,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -1291,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1305,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1319,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -1333,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1347,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -1361,30 +1531,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E86" s="1"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E114" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1 A27:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B27:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A26">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Input_Files/duchy_names/italia_duchies.xlsx
+++ b/src/Input_Files/duchy_names/italia_duchies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9E5C1-A445-4712-B9CE-1316B8BCDE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC7A3B0-58AD-4019-BB22-0C0CD7757445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="duchies" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>owner_id</t>
   </si>
@@ -360,10 +360,25 @@
     <t>(241, 116, 69)</t>
   </si>
   <si>
-    <t xml:space="preserve">ascoli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascoli </t>
+    <t>ascoli</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>capital_county</t>
+  </si>
+  <si>
+    <t>title_succession_laws</t>
+  </si>
+  <si>
+    <t>Istria</t>
+  </si>
+  <si>
+    <t>istria</t>
+  </si>
+  <si>
+    <t>(188, 161, 41)</t>
   </si>
 </sst>
 </file>
@@ -434,127 +449,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1009,22 +904,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1035,13 +931,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1051,11 +953,11 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1065,11 +967,11 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1079,11 +981,11 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1093,11 +995,11 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1107,11 +1009,11 @@
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1121,11 +1023,11 @@
       <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1135,11 +1037,11 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1149,11 +1051,11 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1163,11 +1065,11 @@
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1177,11 +1079,11 @@
       <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1191,11 +1093,11 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1205,11 +1107,11 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1219,11 +1121,11 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1233,11 +1135,11 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1247,11 +1149,11 @@
       <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1261,11 +1163,11 @@
       <c r="C17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1275,11 +1177,11 @@
       <c r="C18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1289,11 +1191,11 @@
       <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1303,11 +1205,11 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1317,11 +1219,11 @@
       <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -1331,11 +1233,11 @@
       <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1345,11 +1247,11 @@
       <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -1359,11 +1261,11 @@
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1373,11 +1275,11 @@
       <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1387,11 +1289,11 @@
       <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1401,11 +1303,11 @@
       <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1415,11 +1317,11 @@
       <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -1429,11 +1331,12 @@
       <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29"/>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1443,11 +1346,11 @@
       <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -1457,11 +1360,11 @@
       <c r="C31" t="s">
         <v>95</v>
       </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -1471,11 +1374,11 @@
       <c r="C32" t="s">
         <v>98</v>
       </c>
-      <c r="E32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -1485,11 +1388,11 @@
       <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -1499,11 +1402,11 @@
       <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1513,11 +1416,11 @@
       <c r="C35" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -1527,41 +1430,62 @@
       <c r="C36" t="s">
         <v>110</v>
       </c>
-      <c r="E36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E114" s="1"/>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1 A27:A1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+  <conditionalFormatting sqref="A27:A1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B27:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+  <conditionalFormatting sqref="B27:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A22 A24:A26">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+  <conditionalFormatting sqref="A2:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
